--- a/metrics/R2/upto time/Angina (UPTO).xlsx
+++ b/metrics/R2/upto time/Angina (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5257977041078927</v>
+        <v>0.5113978597831196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5257977041078925</v>
+        <v>0.5113978597831195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5257977041078925</v>
+        <v>0.5113978597831195</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9876796200835793</v>
+        <v>0.8768802466328068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9875543045149409</v>
+        <v>0.8782367521329875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9869612871792297</v>
+        <v>0.874198624714093</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9877370121767727</v>
+        <v>0.866053391866658</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9877145785147744</v>
+        <v>0.8658555014333777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9876709693457897</v>
+        <v>0.8636747044563109</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9401588992343357</v>
+        <v>0.7898924517426115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9512501701376196</v>
+        <v>0.784758532650797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9446919043525225</v>
+        <v>0.792175216976498</v>
       </c>
     </row>
   </sheetData>
